--- a/Code/Results/Cases/Case_5_177/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_177/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.032152864356461</v>
+        <v>1.08160078149282</v>
       </c>
       <c r="D2">
-        <v>1.048682523287769</v>
+        <v>1.081037149221241</v>
       </c>
       <c r="E2">
-        <v>1.041808735114257</v>
+        <v>1.08407961756302</v>
       </c>
       <c r="F2">
-        <v>1.052442658888475</v>
+        <v>1.093804605640814</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061233143641618</v>
+        <v>1.053819493488765</v>
       </c>
       <c r="J2">
-        <v>1.053412649105597</v>
+        <v>1.086474558061409</v>
       </c>
       <c r="K2">
-        <v>1.059502870919373</v>
+        <v>1.083709018803914</v>
       </c>
       <c r="L2">
-        <v>1.052714787639258</v>
+        <v>1.08674356793931</v>
       </c>
       <c r="M2">
-        <v>1.063216713015745</v>
+        <v>1.096443561597217</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.041654490181771</v>
+        <v>1.083401393453988</v>
       </c>
       <c r="D3">
-        <v>1.056323301946301</v>
+        <v>1.082480895611814</v>
       </c>
       <c r="E3">
-        <v>1.050165054719191</v>
+        <v>1.085685934394403</v>
       </c>
       <c r="F3">
-        <v>1.060972576031393</v>
+        <v>1.095454131505379</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064635859077519</v>
+        <v>1.05432756573479</v>
       </c>
       <c r="J3">
-        <v>1.061070611855413</v>
+        <v>1.087933031224308</v>
       </c>
       <c r="K3">
-        <v>1.066282877616927</v>
+        <v>1.084969620202296</v>
       </c>
       <c r="L3">
-        <v>1.060193910285556</v>
+        <v>1.088166927195285</v>
       </c>
       <c r="M3">
-        <v>1.070880502730623</v>
+        <v>1.097911859235938</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.047581788846827</v>
+        <v>1.084563598509203</v>
       </c>
       <c r="D4">
-        <v>1.061091573127846</v>
+        <v>1.083412368181115</v>
       </c>
       <c r="E4">
-        <v>1.055379735834626</v>
+        <v>1.086722425092756</v>
       </c>
       <c r="F4">
-        <v>1.066298503618891</v>
+        <v>1.096518839316773</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066742176775318</v>
+        <v>1.054653478116228</v>
       </c>
       <c r="J4">
-        <v>1.065841979680185</v>
+        <v>1.088873509858958</v>
       </c>
       <c r="K4">
-        <v>1.070504616776516</v>
+        <v>1.085782062731296</v>
       </c>
       <c r="L4">
-        <v>1.064852744105716</v>
+        <v>1.089084541136353</v>
       </c>
       <c r="M4">
-        <v>1.075657566240763</v>
+        <v>1.098858813018984</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.05002437555662</v>
+        <v>1.085051508273729</v>
       </c>
       <c r="D5">
-        <v>1.063056830467557</v>
+        <v>1.083803317874501</v>
       </c>
       <c r="E5">
-        <v>1.057529001985675</v>
+        <v>1.087157484349062</v>
       </c>
       <c r="F5">
-        <v>1.068494303369697</v>
+        <v>1.096965822618769</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067606171732067</v>
+        <v>1.054789815877302</v>
       </c>
       <c r="J5">
-        <v>1.067806748024023</v>
+        <v>1.089268121634237</v>
       </c>
       <c r="K5">
-        <v>1.072242398881579</v>
+        <v>1.086122846318214</v>
       </c>
       <c r="L5">
-        <v>1.066770901256662</v>
+        <v>1.08946950619243</v>
       </c>
       <c r="M5">
-        <v>1.077625153178605</v>
+        <v>1.099256175016162</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.0504317070478</v>
+        <v>1.085133390976264</v>
       </c>
       <c r="D6">
-        <v>1.063384574997681</v>
+        <v>1.083868922775308</v>
       </c>
       <c r="E6">
-        <v>1.05788743608008</v>
+        <v>1.087230493149405</v>
       </c>
       <c r="F6">
-        <v>1.068860537590024</v>
+        <v>1.097040837123897</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067750016197196</v>
+        <v>1.054812668106053</v>
       </c>
       <c r="J6">
-        <v>1.068134308922612</v>
+        <v>1.089334334173259</v>
       </c>
       <c r="K6">
-        <v>1.07253207760027</v>
+        <v>1.08618002070799</v>
       </c>
       <c r="L6">
-        <v>1.06709067511868</v>
+        <v>1.089534096987207</v>
       </c>
       <c r="M6">
-        <v>1.077953211221313</v>
+        <v>1.099322850969975</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.04761461581346</v>
+        <v>1.084570120638652</v>
       </c>
       <c r="D7">
-        <v>1.061117984063377</v>
+        <v>1.083417594574163</v>
       </c>
       <c r="E7">
-        <v>1.055408619508206</v>
+        <v>1.086728241034599</v>
       </c>
       <c r="F7">
-        <v>1.066328009966814</v>
+        <v>1.096524814346609</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066753804317722</v>
+        <v>1.054655302516434</v>
       </c>
       <c r="J7">
-        <v>1.065868390958443</v>
+        <v>1.088878785670854</v>
       </c>
       <c r="K7">
-        <v>1.070527979457779</v>
+        <v>1.085786619297922</v>
       </c>
       <c r="L7">
-        <v>1.064878529900123</v>
+        <v>1.089089688183513</v>
       </c>
       <c r="M7">
-        <v>1.075684013559723</v>
+        <v>1.09886412546944</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.035412033845195</v>
+        <v>1.082209919042333</v>
       </c>
       <c r="D8">
-        <v>1.051302928353363</v>
+        <v>1.081525641966027</v>
       </c>
       <c r="E8">
-        <v>1.044674594184678</v>
+        <v>1.084623089379467</v>
       </c>
       <c r="F8">
-        <v>1.055367425976865</v>
+        <v>1.094362626622462</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06240373640666</v>
+        <v>1.053991790928023</v>
       </c>
       <c r="J8">
-        <v>1.056040606043201</v>
+        <v>1.08696813681553</v>
       </c>
       <c r="K8">
-        <v>1.061830075620911</v>
+        <v>1.084135724720966</v>
       </c>
       <c r="L8">
-        <v>1.055281603082592</v>
+        <v>1.087225309518891</v>
       </c>
       <c r="M8">
-        <v>1.065846216836421</v>
+        <v>1.096940436017959</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.012030599225425</v>
+        <v>1.078027936590262</v>
       </c>
       <c r="D9">
-        <v>1.032518571649343</v>
+        <v>1.078170360271453</v>
       </c>
       <c r="E9">
-        <v>1.024127790001712</v>
+        <v>1.08089068606773</v>
       </c>
       <c r="F9">
-        <v>1.034411840857568</v>
+        <v>1.090531702637809</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05393755489517</v>
+        <v>1.052800582562804</v>
       </c>
       <c r="J9">
-        <v>1.037165563440298</v>
+        <v>1.083575850690425</v>
       </c>
       <c r="K9">
-        <v>1.045105204151124</v>
+        <v>1.081201243022051</v>
       </c>
       <c r="L9">
-        <v>1.036841174275707</v>
+        <v>1.083913457955661</v>
       </c>
       <c r="M9">
-        <v>1.046970235061258</v>
+        <v>1.093526083557882</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9948711050748839</v>
+        <v>1.075223485393484</v>
       </c>
       <c r="D10">
-        <v>1.018760526668671</v>
+        <v>1.075918363237348</v>
       </c>
       <c r="E10">
-        <v>1.009072096102443</v>
+        <v>1.078386181003755</v>
       </c>
       <c r="F10">
-        <v>1.019075148169632</v>
+        <v>1.087962862545596</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047640523564949</v>
+        <v>1.051991314366398</v>
       </c>
       <c r="J10">
-        <v>1.023289702792297</v>
+        <v>1.081296381485388</v>
       </c>
       <c r="K10">
-        <v>1.032799118915529</v>
+        <v>1.079227149437758</v>
       </c>
       <c r="L10">
-        <v>1.023279460456998</v>
+        <v>1.081686873956055</v>
       </c>
       <c r="M10">
-        <v>1.033108329270744</v>
+        <v>1.091232529364708</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9869814751780076</v>
+        <v>1.0740049996537</v>
       </c>
       <c r="D11">
-        <v>1.012444798611857</v>
+        <v>1.074939465857998</v>
       </c>
       <c r="E11">
-        <v>1.00215792823192</v>
+        <v>1.077297657323718</v>
       </c>
       <c r="F11">
-        <v>1.01203672829857</v>
+        <v>1.086846802646728</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044726995426638</v>
+        <v>1.051637230362952</v>
       </c>
       <c r="J11">
-        <v>1.016906051138951</v>
+        <v>1.080304907380444</v>
       </c>
       <c r="K11">
-        <v>1.027135779385868</v>
+        <v>1.078367973120841</v>
       </c>
       <c r="L11">
-        <v>1.017039263605951</v>
+        <v>1.080718125116163</v>
       </c>
       <c r="M11">
-        <v>1.026735164295666</v>
+        <v>1.090235107456671</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.98397279666888</v>
+        <v>1.073551758549812</v>
       </c>
       <c r="D12">
-        <v>1.01003816562823</v>
+        <v>1.074575279288094</v>
       </c>
       <c r="E12">
-        <v>0.999522733168413</v>
+        <v>1.07689270488419</v>
       </c>
       <c r="F12">
-        <v>1.009354934737782</v>
+        <v>1.08643167050273</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043613358897285</v>
+        <v>1.051505150679073</v>
       </c>
       <c r="J12">
-        <v>1.014471293508862</v>
+        <v>1.079935945532258</v>
       </c>
       <c r="K12">
-        <v>1.024975544419793</v>
+        <v>1.078048165017124</v>
       </c>
       <c r="L12">
-        <v>1.014659082573073</v>
+        <v>1.080357578283701</v>
       </c>
       <c r="M12">
-        <v>1.024305077093687</v>
+        <v>1.089863959261153</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9846218685150567</v>
+        <v>1.073649009634808</v>
       </c>
       <c r="D13">
-        <v>1.010557266979994</v>
+        <v>1.074653425045813</v>
       </c>
       <c r="E13">
-        <v>1.000091160064084</v>
+        <v>1.076979597169938</v>
       </c>
       <c r="F13">
-        <v>1.009933378395212</v>
+        <v>1.086520744172836</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043853720291193</v>
+        <v>1.051533507534271</v>
       </c>
       <c r="J13">
-        <v>1.014996565197494</v>
+        <v>1.080015120319566</v>
       </c>
       <c r="K13">
-        <v>1.02544159901162</v>
+        <v>1.078116795559882</v>
       </c>
       <c r="L13">
-        <v>1.015172585756996</v>
+        <v>1.080434949204683</v>
       </c>
       <c r="M13">
-        <v>1.024829309887964</v>
+        <v>1.089943601985933</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9867344292610358</v>
+        <v>1.073967547796228</v>
       </c>
       <c r="D14">
-        <v>1.012247147830539</v>
+        <v>1.074909374008582</v>
       </c>
       <c r="E14">
-        <v>1.001941517518593</v>
+        <v>1.077264196702736</v>
       </c>
       <c r="F14">
-        <v>1.011816475208103</v>
+        <v>1.086812499578174</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0446356044964</v>
+        <v>1.051626324017541</v>
       </c>
       <c r="J14">
-        <v>1.016706136934905</v>
+        <v>1.080274422929058</v>
       </c>
       <c r="K14">
-        <v>1.026958409567103</v>
+        <v>1.0783415514663</v>
       </c>
       <c r="L14">
-        <v>1.016843833238472</v>
+        <v>1.080688336786009</v>
       </c>
       <c r="M14">
-        <v>1.026535619628306</v>
+        <v>1.090204441811984</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9880253947788262</v>
+        <v>1.074163724118568</v>
       </c>
       <c r="D15">
-        <v>1.013280070567712</v>
+        <v>1.075066995255758</v>
       </c>
       <c r="E15">
-        <v>1.003072457688954</v>
+        <v>1.077439464372824</v>
       </c>
       <c r="F15">
-        <v>1.012967526181982</v>
+        <v>1.086992182646816</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04511307460452</v>
+        <v>1.051683437299222</v>
       </c>
       <c r="J15">
-        <v>1.017750796423621</v>
+        <v>1.080434096682478</v>
       </c>
       <c r="K15">
-        <v>1.027885254519346</v>
+        <v>1.078479941573018</v>
       </c>
       <c r="L15">
-        <v>1.017865056831466</v>
+        <v>1.080844362630194</v>
       </c>
       <c r="M15">
-        <v>1.027578375641535</v>
+        <v>1.090365065740904</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9953842958088459</v>
+        <v>1.075304263416283</v>
       </c>
       <c r="D16">
-        <v>1.019171573642601</v>
+        <v>1.075983248821612</v>
       </c>
       <c r="E16">
-        <v>1.009522025929812</v>
+        <v>1.078458335837358</v>
       </c>
       <c r="F16">
-        <v>1.019533265119369</v>
+        <v>1.088036851653783</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047829675756323</v>
+        <v>1.052014735981283</v>
       </c>
       <c r="J16">
-        <v>1.023704872759255</v>
+        <v>1.081362087276772</v>
       </c>
       <c r="K16">
-        <v>1.03316740975319</v>
+        <v>1.079284076685044</v>
       </c>
       <c r="L16">
-        <v>1.02368528044332</v>
+        <v>1.081751067875711</v>
       </c>
       <c r="M16">
-        <v>1.033522905554622</v>
+        <v>1.091298633095226</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9998714254222842</v>
+        <v>1.076018571684033</v>
       </c>
       <c r="D17">
-        <v>1.022766751086356</v>
+        <v>1.076556971596372</v>
       </c>
       <c r="E17">
-        <v>1.013456968992226</v>
+        <v>1.079096349129723</v>
       </c>
       <c r="F17">
-        <v>1.02354035064895</v>
+        <v>1.088691133222334</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049481519494908</v>
+        <v>1.052221565020735</v>
       </c>
       <c r="J17">
-        <v>1.027334545458419</v>
+        <v>1.081942989049498</v>
       </c>
       <c r="K17">
-        <v>1.03638703453397</v>
+        <v>1.079787306986383</v>
       </c>
       <c r="L17">
-        <v>1.02723309233294</v>
+        <v>1.082318571251627</v>
       </c>
       <c r="M17">
-        <v>1.037147848691158</v>
+        <v>1.091883073636159</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002445056795918</v>
+        <v>1.076434817487739</v>
       </c>
       <c r="D18">
-        <v>1.024829699175424</v>
+        <v>1.076891251829354</v>
       </c>
       <c r="E18">
-        <v>1.01571463017344</v>
+        <v>1.079468101246404</v>
       </c>
       <c r="F18">
-        <v>1.025839847044945</v>
+        <v>1.089072405333712</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050427237124526</v>
+        <v>1.052341851666774</v>
       </c>
       <c r="J18">
-        <v>1.029416010006622</v>
+        <v>1.082281391049514</v>
       </c>
       <c r="K18">
-        <v>1.038233174777306</v>
+        <v>1.080080410953791</v>
       </c>
       <c r="L18">
-        <v>1.029267511938446</v>
+        <v>1.082649141365639</v>
       </c>
       <c r="M18">
-        <v>1.039226974983126</v>
+        <v>1.09222355430199</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003315446513403</v>
+        <v>1.076576679601371</v>
       </c>
       <c r="D19">
-        <v>1.02552752228753</v>
+        <v>1.077005171688493</v>
       </c>
       <c r="E19">
-        <v>1.016478278912841</v>
+        <v>1.079594793426022</v>
       </c>
       <c r="F19">
-        <v>1.026617720695426</v>
+        <v>1.089202348834735</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050746779408226</v>
+        <v>1.052382806582875</v>
       </c>
       <c r="J19">
-        <v>1.030119884300174</v>
+        <v>1.082396705236334</v>
       </c>
       <c r="K19">
-        <v>1.038857438759219</v>
+        <v>1.080180280704602</v>
       </c>
       <c r="L19">
-        <v>1.029955459615855</v>
+        <v>1.082761782226344</v>
       </c>
       <c r="M19">
-        <v>1.039930120406689</v>
+        <v>1.092339579723146</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9993945726182036</v>
+        <v>1.075941974485984</v>
       </c>
       <c r="D20">
-        <v>1.022384590838013</v>
+        <v>1.076495454177193</v>
       </c>
       <c r="E20">
-        <v>1.013038718854629</v>
+        <v>1.07902793682771</v>
       </c>
       <c r="F20">
-        <v>1.023114385963511</v>
+        <v>1.088620972281899</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04930615307783</v>
+        <v>1.052199410805093</v>
       </c>
       <c r="J20">
-        <v>1.026948852441009</v>
+        <v>1.081880708189333</v>
       </c>
       <c r="K20">
-        <v>1.036044931827252</v>
+        <v>1.079733358859686</v>
       </c>
       <c r="L20">
-        <v>1.026856108328537</v>
+        <v>1.082257729652947</v>
       </c>
       <c r="M20">
-        <v>1.036762618922593</v>
+        <v>1.091820411591751</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9861145709745411</v>
+        <v>1.073873764104524</v>
       </c>
       <c r="D21">
-        <v>1.011751256827428</v>
+        <v>1.074834019559707</v>
       </c>
       <c r="E21">
-        <v>1.001398550429267</v>
+        <v>1.077180406658325</v>
       </c>
       <c r="F21">
-        <v>1.011263880021414</v>
+        <v>1.086726600967909</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044406256537749</v>
+        <v>1.051599007307738</v>
       </c>
       <c r="J21">
-        <v>1.016204530587627</v>
+        <v>1.080198083789324</v>
       </c>
       <c r="K21">
-        <v>1.02651336644716</v>
+        <v>1.078275385107802</v>
       </c>
       <c r="L21">
-        <v>1.016353475198132</v>
+        <v>1.080613740196442</v>
       </c>
       <c r="M21">
-        <v>1.026034951473418</v>
+        <v>1.090127649365387</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9773070637456679</v>
+        <v>1.072569678383193</v>
       </c>
       <c r="D22">
-        <v>1.004710117912732</v>
+        <v>1.07378604382088</v>
       </c>
       <c r="E22">
-        <v>0.9936875624427414</v>
+        <v>1.076015159179035</v>
       </c>
       <c r="F22">
-        <v>1.003418028232272</v>
+        <v>1.085532183154222</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041141543846799</v>
+        <v>1.051218283242732</v>
       </c>
       <c r="J22">
-        <v>1.00907662633862</v>
+        <v>1.07913618438741</v>
       </c>
       <c r="K22">
-        <v>1.020188840377882</v>
+        <v>1.077354805663339</v>
       </c>
       <c r="L22">
-        <v>1.009385115787699</v>
+        <v>1.079575980788082</v>
       </c>
       <c r="M22">
-        <v>1.018922076061645</v>
+        <v>1.089059508701493</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9820230054051784</v>
+        <v>1.073261357982713</v>
       </c>
       <c r="D23">
-        <v>1.008479101979858</v>
+        <v>1.074341919493559</v>
       </c>
       <c r="E23">
-        <v>0.9978154393011988</v>
+        <v>1.076633228852254</v>
       </c>
       <c r="F23">
-        <v>1.007617669350292</v>
+        <v>1.086165689912124</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042890958135701</v>
+        <v>1.051420420275434</v>
       </c>
       <c r="J23">
-        <v>1.012893355175877</v>
+        <v>1.079699498675841</v>
       </c>
       <c r="K23">
-        <v>1.023575472493571</v>
+        <v>1.077843195885234</v>
       </c>
       <c r="L23">
-        <v>1.01311647921177</v>
+        <v>1.08012651233938</v>
       </c>
       <c r="M23">
-        <v>1.022730363192318</v>
+        <v>1.089626118935686</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9996101760499212</v>
+        <v>1.075976586692565</v>
       </c>
       <c r="D24">
-        <v>1.022557377348754</v>
+        <v>1.076523252371056</v>
       </c>
       <c r="E24">
-        <v>1.013227823487315</v>
+        <v>1.079058850607808</v>
       </c>
       <c r="F24">
-        <v>1.023306977218885</v>
+        <v>1.08865267610072</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049385448295539</v>
+        <v>1.052209422432922</v>
       </c>
       <c r="J24">
-        <v>1.027123240188727</v>
+        <v>1.081908851552005</v>
       </c>
       <c r="K24">
-        <v>1.036199611157242</v>
+        <v>1.079757736998993</v>
       </c>
       <c r="L24">
-        <v>1.027026558688308</v>
+        <v>1.082285222727292</v>
       </c>
       <c r="M24">
-        <v>1.036936796056829</v>
+        <v>1.091848727150196</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01832679163163</v>
+        <v>1.079111907392002</v>
       </c>
       <c r="D25">
-        <v>1.037573159072595</v>
+        <v>1.079040395140755</v>
       </c>
       <c r="E25">
-        <v>1.029657444384375</v>
+        <v>1.081858399309327</v>
       </c>
       <c r="F25">
-        <v>1.040048500869728</v>
+        <v>1.091524649524353</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056231893757702</v>
+        <v>1.053111180914999</v>
       </c>
       <c r="J25">
-        <v>1.042252744668707</v>
+        <v>1.084455940652284</v>
       </c>
       <c r="K25">
-        <v>1.049614913292786</v>
+        <v>1.081962957700428</v>
       </c>
       <c r="L25">
-        <v>1.041812172924733</v>
+        <v>1.084772883817761</v>
       </c>
       <c r="M25">
-        <v>1.052055372523801</v>
+        <v>1.094411768774962</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_177/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_177/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.08160078149282</v>
+        <v>1.032152864356462</v>
       </c>
       <c r="D2">
-        <v>1.081037149221241</v>
+        <v>1.048682523287769</v>
       </c>
       <c r="E2">
-        <v>1.08407961756302</v>
+        <v>1.041808735114258</v>
       </c>
       <c r="F2">
-        <v>1.093804605640814</v>
+        <v>1.052442658888476</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053819493488765</v>
+        <v>1.061233143641618</v>
       </c>
       <c r="J2">
-        <v>1.086474558061409</v>
+        <v>1.053412649105598</v>
       </c>
       <c r="K2">
-        <v>1.083709018803914</v>
+        <v>1.059502870919374</v>
       </c>
       <c r="L2">
-        <v>1.08674356793931</v>
+        <v>1.052714787639258</v>
       </c>
       <c r="M2">
-        <v>1.096443561597217</v>
+        <v>1.063216713015746</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.083401393453988</v>
+        <v>1.041654490181769</v>
       </c>
       <c r="D3">
-        <v>1.082480895611814</v>
+        <v>1.056323301946299</v>
       </c>
       <c r="E3">
-        <v>1.085685934394403</v>
+        <v>1.050165054719189</v>
       </c>
       <c r="F3">
-        <v>1.095454131505379</v>
+        <v>1.060972576031391</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05432756573479</v>
+        <v>1.064635859077518</v>
       </c>
       <c r="J3">
-        <v>1.087933031224308</v>
+        <v>1.061070611855411</v>
       </c>
       <c r="K3">
-        <v>1.084969620202296</v>
+        <v>1.066282877616926</v>
       </c>
       <c r="L3">
-        <v>1.088166927195285</v>
+        <v>1.060193910285554</v>
       </c>
       <c r="M3">
-        <v>1.097911859235938</v>
+        <v>1.070880502730621</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.084563598509203</v>
+        <v>1.047581788846828</v>
       </c>
       <c r="D4">
-        <v>1.083412368181115</v>
+        <v>1.061091573127846</v>
       </c>
       <c r="E4">
-        <v>1.086722425092756</v>
+        <v>1.055379735834626</v>
       </c>
       <c r="F4">
-        <v>1.096518839316773</v>
+        <v>1.066298503618892</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054653478116228</v>
+        <v>1.066742176775318</v>
       </c>
       <c r="J4">
-        <v>1.088873509858958</v>
+        <v>1.065841979680185</v>
       </c>
       <c r="K4">
-        <v>1.085782062731296</v>
+        <v>1.070504616776517</v>
       </c>
       <c r="L4">
-        <v>1.089084541136353</v>
+        <v>1.064852744105716</v>
       </c>
       <c r="M4">
-        <v>1.098858813018984</v>
+        <v>1.075657566240763</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.085051508273729</v>
+        <v>1.05002437555662</v>
       </c>
       <c r="D5">
-        <v>1.083803317874501</v>
+        <v>1.063056830467557</v>
       </c>
       <c r="E5">
-        <v>1.087157484349062</v>
+        <v>1.057529001985675</v>
       </c>
       <c r="F5">
-        <v>1.096965822618769</v>
+        <v>1.068494303369697</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054789815877302</v>
+        <v>1.067606171732067</v>
       </c>
       <c r="J5">
-        <v>1.089268121634237</v>
+        <v>1.067806748024023</v>
       </c>
       <c r="K5">
-        <v>1.086122846318214</v>
+        <v>1.072242398881578</v>
       </c>
       <c r="L5">
-        <v>1.08946950619243</v>
+        <v>1.066770901256662</v>
       </c>
       <c r="M5">
-        <v>1.099256175016162</v>
+        <v>1.077625153178605</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.085133390976264</v>
+        <v>1.050431707047803</v>
       </c>
       <c r="D6">
-        <v>1.083868922775308</v>
+        <v>1.063384574997684</v>
       </c>
       <c r="E6">
-        <v>1.087230493149405</v>
+        <v>1.057887436080083</v>
       </c>
       <c r="F6">
-        <v>1.097040837123897</v>
+        <v>1.068860537590027</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054812668106053</v>
+        <v>1.067750016197197</v>
       </c>
       <c r="J6">
-        <v>1.089334334173259</v>
+        <v>1.068134308922615</v>
       </c>
       <c r="K6">
-        <v>1.08618002070799</v>
+        <v>1.072532077600273</v>
       </c>
       <c r="L6">
-        <v>1.089534096987207</v>
+        <v>1.067090675118683</v>
       </c>
       <c r="M6">
-        <v>1.099322850969975</v>
+        <v>1.077953211221316</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.084570120638652</v>
+        <v>1.047614615813463</v>
       </c>
       <c r="D7">
-        <v>1.083417594574163</v>
+        <v>1.061117984063379</v>
       </c>
       <c r="E7">
-        <v>1.086728241034599</v>
+        <v>1.055408619508209</v>
       </c>
       <c r="F7">
-        <v>1.096524814346609</v>
+        <v>1.066328009966818</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054655302516434</v>
+        <v>1.066753804317724</v>
       </c>
       <c r="J7">
-        <v>1.088878785670854</v>
+        <v>1.065868390958446</v>
       </c>
       <c r="K7">
-        <v>1.085786619297922</v>
+        <v>1.070527979457782</v>
       </c>
       <c r="L7">
-        <v>1.089089688183513</v>
+        <v>1.064878529900126</v>
       </c>
       <c r="M7">
-        <v>1.09886412546944</v>
+        <v>1.075684013559727</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.082209919042333</v>
+        <v>1.035412033845195</v>
       </c>
       <c r="D8">
-        <v>1.081525641966027</v>
+        <v>1.051302928353363</v>
       </c>
       <c r="E8">
-        <v>1.084623089379467</v>
+        <v>1.044674594184678</v>
       </c>
       <c r="F8">
-        <v>1.094362626622462</v>
+        <v>1.055367425976865</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053991790928023</v>
+        <v>1.062403736406661</v>
       </c>
       <c r="J8">
-        <v>1.08696813681553</v>
+        <v>1.056040606043201</v>
       </c>
       <c r="K8">
-        <v>1.084135724720966</v>
+        <v>1.06183007562091</v>
       </c>
       <c r="L8">
-        <v>1.087225309518891</v>
+        <v>1.055281603082592</v>
       </c>
       <c r="M8">
-        <v>1.096940436017959</v>
+        <v>1.065846216836421</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.078027936590262</v>
+        <v>1.012030599225428</v>
       </c>
       <c r="D9">
-        <v>1.078170360271453</v>
+        <v>1.032518571649346</v>
       </c>
       <c r="E9">
-        <v>1.08089068606773</v>
+        <v>1.024127790001714</v>
       </c>
       <c r="F9">
-        <v>1.090531702637809</v>
+        <v>1.034411840857571</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052800582562804</v>
+        <v>1.053937554895172</v>
       </c>
       <c r="J9">
-        <v>1.083575850690425</v>
+        <v>1.037165563440301</v>
       </c>
       <c r="K9">
-        <v>1.081201243022051</v>
+        <v>1.045105204151127</v>
       </c>
       <c r="L9">
-        <v>1.083913457955661</v>
+        <v>1.03684117427571</v>
       </c>
       <c r="M9">
-        <v>1.093526083557882</v>
+        <v>1.046970235061261</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.075223485393484</v>
+        <v>0.9948711050748833</v>
       </c>
       <c r="D10">
-        <v>1.075918363237348</v>
+        <v>1.018760526668671</v>
       </c>
       <c r="E10">
-        <v>1.078386181003755</v>
+        <v>1.009072096102442</v>
       </c>
       <c r="F10">
-        <v>1.087962862545596</v>
+        <v>1.019075148169632</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051991314366398</v>
+        <v>1.04764052356495</v>
       </c>
       <c r="J10">
-        <v>1.081296381485388</v>
+        <v>1.023289702792296</v>
       </c>
       <c r="K10">
-        <v>1.079227149437758</v>
+        <v>1.032799118915529</v>
       </c>
       <c r="L10">
-        <v>1.081686873956055</v>
+        <v>1.023279460456998</v>
       </c>
       <c r="M10">
-        <v>1.091232529364708</v>
+        <v>1.033108329270743</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.0740049996537</v>
+        <v>0.9869814751780083</v>
       </c>
       <c r="D11">
-        <v>1.074939465857998</v>
+        <v>1.012444798611858</v>
       </c>
       <c r="E11">
-        <v>1.077297657323718</v>
+        <v>1.00215792823192</v>
       </c>
       <c r="F11">
-        <v>1.086846802646728</v>
+        <v>1.01203672829857</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051637230362952</v>
+        <v>1.044726995426638</v>
       </c>
       <c r="J11">
-        <v>1.080304907380444</v>
+        <v>1.016906051138951</v>
       </c>
       <c r="K11">
-        <v>1.078367973120841</v>
+        <v>1.027135779385868</v>
       </c>
       <c r="L11">
-        <v>1.080718125116163</v>
+        <v>1.017039263605951</v>
       </c>
       <c r="M11">
-        <v>1.090235107456671</v>
+        <v>1.026735164295666</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.073551758549812</v>
+        <v>0.9839727966688798</v>
       </c>
       <c r="D12">
-        <v>1.074575279288094</v>
+        <v>1.01003816562823</v>
       </c>
       <c r="E12">
-        <v>1.07689270488419</v>
+        <v>0.9995227331684131</v>
       </c>
       <c r="F12">
-        <v>1.08643167050273</v>
+        <v>1.009354934737782</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051505150679073</v>
+        <v>1.043613358897286</v>
       </c>
       <c r="J12">
-        <v>1.079935945532258</v>
+        <v>1.014471293508862</v>
       </c>
       <c r="K12">
-        <v>1.078048165017124</v>
+        <v>1.024975544419793</v>
       </c>
       <c r="L12">
-        <v>1.080357578283701</v>
+        <v>1.014659082573073</v>
       </c>
       <c r="M12">
-        <v>1.089863959261153</v>
+        <v>1.024305077093687</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.073649009634808</v>
+        <v>0.9846218685150575</v>
       </c>
       <c r="D13">
-        <v>1.074653425045813</v>
+        <v>1.010557266979995</v>
       </c>
       <c r="E13">
-        <v>1.076979597169938</v>
+        <v>1.000091160064085</v>
       </c>
       <c r="F13">
-        <v>1.086520744172836</v>
+        <v>1.009933378395213</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051533507534271</v>
+        <v>1.043853720291193</v>
       </c>
       <c r="J13">
-        <v>1.080015120319566</v>
+        <v>1.014996565197495</v>
       </c>
       <c r="K13">
-        <v>1.078116795559882</v>
+        <v>1.025441599011621</v>
       </c>
       <c r="L13">
-        <v>1.080434949204683</v>
+        <v>1.015172585756996</v>
       </c>
       <c r="M13">
-        <v>1.089943601985933</v>
+        <v>1.024829309887964</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.073967547796228</v>
+        <v>0.9867344292610346</v>
       </c>
       <c r="D14">
-        <v>1.074909374008582</v>
+        <v>1.012247147830538</v>
       </c>
       <c r="E14">
-        <v>1.077264196702736</v>
+        <v>1.001941517518592</v>
       </c>
       <c r="F14">
-        <v>1.086812499578174</v>
+        <v>1.011816475208101</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051626324017541</v>
+        <v>1.0446356044964</v>
       </c>
       <c r="J14">
-        <v>1.080274422929058</v>
+        <v>1.016706136934903</v>
       </c>
       <c r="K14">
-        <v>1.0783415514663</v>
+        <v>1.026958409567102</v>
       </c>
       <c r="L14">
-        <v>1.080688336786009</v>
+        <v>1.016843833238471</v>
       </c>
       <c r="M14">
-        <v>1.090204441811984</v>
+        <v>1.026535619628306</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.074163724118568</v>
+        <v>0.9880253947788289</v>
       </c>
       <c r="D15">
-        <v>1.075066995255758</v>
+        <v>1.013280070567714</v>
       </c>
       <c r="E15">
-        <v>1.077439464372824</v>
+        <v>1.003072457688957</v>
       </c>
       <c r="F15">
-        <v>1.086992182646816</v>
+        <v>1.012967526181984</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051683437299222</v>
+        <v>1.045113074604521</v>
       </c>
       <c r="J15">
-        <v>1.080434096682478</v>
+        <v>1.017750796423623</v>
       </c>
       <c r="K15">
-        <v>1.078479941573018</v>
+        <v>1.027885254519348</v>
       </c>
       <c r="L15">
-        <v>1.080844362630194</v>
+        <v>1.017865056831468</v>
       </c>
       <c r="M15">
-        <v>1.090365065740904</v>
+        <v>1.027578375641538</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.075304263416283</v>
+        <v>0.995384295808841</v>
       </c>
       <c r="D16">
-        <v>1.075983248821612</v>
+        <v>1.019171573642596</v>
       </c>
       <c r="E16">
-        <v>1.078458335837358</v>
+        <v>1.009522025929807</v>
       </c>
       <c r="F16">
-        <v>1.088036851653783</v>
+        <v>1.019533265119364</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052014735981283</v>
+        <v>1.047829675756321</v>
       </c>
       <c r="J16">
-        <v>1.081362087276772</v>
+        <v>1.023704872759251</v>
       </c>
       <c r="K16">
-        <v>1.079284076685044</v>
+        <v>1.033167409753186</v>
       </c>
       <c r="L16">
-        <v>1.081751067875711</v>
+        <v>1.023685280443316</v>
       </c>
       <c r="M16">
-        <v>1.091298633095226</v>
+        <v>1.033522905554618</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.076018571684033</v>
+        <v>0.9998714254222826</v>
       </c>
       <c r="D17">
-        <v>1.076556971596372</v>
+        <v>1.022766751086355</v>
       </c>
       <c r="E17">
-        <v>1.079096349129723</v>
+        <v>1.013456968992224</v>
       </c>
       <c r="F17">
-        <v>1.088691133222334</v>
+        <v>1.023540350648949</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052221565020735</v>
+        <v>1.049481519494907</v>
       </c>
       <c r="J17">
-        <v>1.081942989049498</v>
+        <v>1.027334545458418</v>
       </c>
       <c r="K17">
-        <v>1.079787306986383</v>
+        <v>1.036387034533968</v>
       </c>
       <c r="L17">
-        <v>1.082318571251627</v>
+        <v>1.027233092332938</v>
       </c>
       <c r="M17">
-        <v>1.091883073636159</v>
+        <v>1.037147848691156</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.076434817487739</v>
+        <v>1.00244505679592</v>
       </c>
       <c r="D18">
-        <v>1.076891251829354</v>
+        <v>1.024829699175426</v>
       </c>
       <c r="E18">
-        <v>1.079468101246404</v>
+        <v>1.015714630173441</v>
       </c>
       <c r="F18">
-        <v>1.089072405333712</v>
+        <v>1.025839847044947</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052341851666774</v>
+        <v>1.050427237124527</v>
       </c>
       <c r="J18">
-        <v>1.082281391049514</v>
+        <v>1.029416010006623</v>
       </c>
       <c r="K18">
-        <v>1.080080410953791</v>
+        <v>1.038233174777307</v>
       </c>
       <c r="L18">
-        <v>1.082649141365639</v>
+        <v>1.029267511938447</v>
       </c>
       <c r="M18">
-        <v>1.09222355430199</v>
+        <v>1.039226974983127</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.076576679601371</v>
+        <v>1.003315446513402</v>
       </c>
       <c r="D19">
-        <v>1.077005171688493</v>
+        <v>1.025527522287528</v>
       </c>
       <c r="E19">
-        <v>1.079594793426022</v>
+        <v>1.016478278912839</v>
       </c>
       <c r="F19">
-        <v>1.089202348834735</v>
+        <v>1.026617720695424</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052382806582875</v>
+        <v>1.050746779408225</v>
       </c>
       <c r="J19">
-        <v>1.082396705236334</v>
+        <v>1.030119884300173</v>
       </c>
       <c r="K19">
-        <v>1.080180280704602</v>
+        <v>1.038857438759218</v>
       </c>
       <c r="L19">
-        <v>1.082761782226344</v>
+        <v>1.029955459615853</v>
       </c>
       <c r="M19">
-        <v>1.092339579723146</v>
+        <v>1.039930120406687</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.075941974485984</v>
+        <v>0.9993945726182043</v>
       </c>
       <c r="D20">
-        <v>1.076495454177193</v>
+        <v>1.022384590838014</v>
       </c>
       <c r="E20">
-        <v>1.07902793682771</v>
+        <v>1.01303871885463</v>
       </c>
       <c r="F20">
-        <v>1.088620972281899</v>
+        <v>1.023114385963511</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052199410805093</v>
+        <v>1.049306153077831</v>
       </c>
       <c r="J20">
-        <v>1.081880708189333</v>
+        <v>1.02694885244101</v>
       </c>
       <c r="K20">
-        <v>1.079733358859686</v>
+        <v>1.036044931827254</v>
       </c>
       <c r="L20">
-        <v>1.082257729652947</v>
+        <v>1.026856108328537</v>
       </c>
       <c r="M20">
-        <v>1.091820411591751</v>
+        <v>1.036762618922594</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.073873764104524</v>
+        <v>0.986114570974538</v>
       </c>
       <c r="D21">
-        <v>1.074834019559707</v>
+        <v>1.011751256827425</v>
       </c>
       <c r="E21">
-        <v>1.077180406658325</v>
+        <v>1.001398550429264</v>
       </c>
       <c r="F21">
-        <v>1.086726600967909</v>
+        <v>1.011263880021411</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051599007307738</v>
+        <v>1.044406256537748</v>
       </c>
       <c r="J21">
-        <v>1.080198083789324</v>
+        <v>1.016204530587624</v>
       </c>
       <c r="K21">
-        <v>1.078275385107802</v>
+        <v>1.026513366447157</v>
       </c>
       <c r="L21">
-        <v>1.080613740196442</v>
+        <v>1.01635347519813</v>
       </c>
       <c r="M21">
-        <v>1.090127649365387</v>
+        <v>1.026034951473416</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.072569678383193</v>
+        <v>0.9773070637456679</v>
       </c>
       <c r="D22">
-        <v>1.07378604382088</v>
+        <v>1.004710117912732</v>
       </c>
       <c r="E22">
-        <v>1.076015159179035</v>
+        <v>0.993687562442741</v>
       </c>
       <c r="F22">
-        <v>1.085532183154222</v>
+        <v>1.003418028232272</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051218283242732</v>
+        <v>1.041141543846799</v>
       </c>
       <c r="J22">
-        <v>1.07913618438741</v>
+        <v>1.00907662633862</v>
       </c>
       <c r="K22">
-        <v>1.077354805663339</v>
+        <v>1.020188840377882</v>
       </c>
       <c r="L22">
-        <v>1.079575980788082</v>
+        <v>1.009385115787699</v>
       </c>
       <c r="M22">
-        <v>1.089059508701493</v>
+        <v>1.018922076061645</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.073261357982713</v>
+        <v>0.9820230054051768</v>
       </c>
       <c r="D23">
-        <v>1.074341919493559</v>
+        <v>1.008479101979856</v>
       </c>
       <c r="E23">
-        <v>1.076633228852254</v>
+        <v>0.9978154393011972</v>
       </c>
       <c r="F23">
-        <v>1.086165689912124</v>
+        <v>1.007617669350291</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051420420275434</v>
+        <v>1.0428909581357</v>
       </c>
       <c r="J23">
-        <v>1.079699498675841</v>
+        <v>1.012893355175876</v>
       </c>
       <c r="K23">
-        <v>1.077843195885234</v>
+        <v>1.023575472493569</v>
       </c>
       <c r="L23">
-        <v>1.08012651233938</v>
+        <v>1.013116479211768</v>
       </c>
       <c r="M23">
-        <v>1.089626118935686</v>
+        <v>1.022730363192317</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.075976586692565</v>
+        <v>0.999610176049921</v>
       </c>
       <c r="D24">
-        <v>1.076523252371056</v>
+        <v>1.022557377348754</v>
       </c>
       <c r="E24">
-        <v>1.079058850607808</v>
+        <v>1.013227823487314</v>
       </c>
       <c r="F24">
-        <v>1.08865267610072</v>
+        <v>1.023306977218884</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052209422432922</v>
+        <v>1.049385448295539</v>
       </c>
       <c r="J24">
-        <v>1.081908851552005</v>
+        <v>1.027123240188726</v>
       </c>
       <c r="K24">
-        <v>1.079757736998993</v>
+        <v>1.036199611157241</v>
       </c>
       <c r="L24">
-        <v>1.082285222727292</v>
+        <v>1.027026558688308</v>
       </c>
       <c r="M24">
-        <v>1.091848727150196</v>
+        <v>1.036936796056828</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.079111907392002</v>
+        <v>1.018326791631632</v>
       </c>
       <c r="D25">
-        <v>1.079040395140755</v>
+        <v>1.037573159072598</v>
       </c>
       <c r="E25">
-        <v>1.081858399309327</v>
+        <v>1.029657444384377</v>
       </c>
       <c r="F25">
-        <v>1.091524649524353</v>
+        <v>1.04004850086973</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053111180914999</v>
+        <v>1.056231893757703</v>
       </c>
       <c r="J25">
-        <v>1.084455940652284</v>
+        <v>1.042252744668709</v>
       </c>
       <c r="K25">
-        <v>1.081962957700428</v>
+        <v>1.049614913292788</v>
       </c>
       <c r="L25">
-        <v>1.084772883817761</v>
+        <v>1.041812172924735</v>
       </c>
       <c r="M25">
-        <v>1.094411768774962</v>
+        <v>1.052055372523802</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
